--- a/raw_game_pulls/6200252_Play-By-Play for South Carolina St. vs Coppin St..xlsx
+++ b/raw_game_pulls/6200252_Play-By-Play for South Carolina St. vs Coppin St..xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdona\repos\ncaa_2024\raw_game_pulls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DB5C3D-D2BA-4BCB-B554-28A158A2F96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -625,12 +631,6 @@
     <t>Tip In MISSED by SCSTATE's Croskey, Omar</t>
   </si>
   <si>
-    <t>COPPINM Defensive REBOUND by Winston, Justin</t>
-  </si>
-  <si>
-    <t>Layup MISSED by COPPINM's Prescott, Darryon</t>
-  </si>
-  <si>
     <t>SCSTATE Defensive REBOUND by Brown, Raquan</t>
   </si>
   <si>
@@ -640,9 +640,6 @@
     <t>SCSTATE Assist by Croskey, Omar</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by COPPINM's Winston, Justin</t>
-  </si>
-  <si>
     <t>SCSTATE Defensive REBOUND by James, Dallas</t>
   </si>
   <si>
@@ -652,15 +649,6 @@
     <t>SCSTATE Assist by Teal, Michael</t>
   </si>
   <si>
-    <t>Jumper MISSED by COPPINM's Archey, Ryan</t>
-  </si>
-  <si>
-    <t>COPPINM Offensive REBOUND by Horton, Khali</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by COPPINM's Archey, Ryan</t>
-  </si>
-  <si>
     <t>Subbing in for SCSTATE - Mccarty, Caleb</t>
   </si>
   <si>
@@ -676,9 +664,6 @@
     <t>Tip In GOOD by SCSTATE's Mccarty, Caleb</t>
   </si>
   <si>
-    <t>COPPINM Turnover by Prescott, Darryon</t>
-  </si>
-  <si>
     <t>SCSTATE Steal by Everett, Davion</t>
   </si>
   <si>
@@ -688,12 +673,6 @@
     <t>SCSTATE Assist by Mccarty, Caleb</t>
   </si>
   <si>
-    <t>Layup GOOD by COPPINM's Winston, Justin</t>
-  </si>
-  <si>
-    <t>Foul on COPPINM's Prescott, Darryon</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by SCSTATE's Mccarty, Caleb</t>
   </si>
   <si>
@@ -715,12 +694,6 @@
     <t>Subbing out for SCSTATE - Everett, Davion</t>
   </si>
   <si>
-    <t>Jumper GOOD by COPPINM's Prescott, Darryon</t>
-  </si>
-  <si>
-    <t>COPPINM Assist by Winston, Justin</t>
-  </si>
-  <si>
     <t>Layup MISSED by SCSTATE's Simpson, Jordan</t>
   </si>
   <si>
@@ -730,21 +703,12 @@
     <t>Tip In MISSED by SCSTATE's Brown, Raquan</t>
   </si>
   <si>
-    <t>COPPINM Block by Winston, Justin</t>
-  </si>
-  <si>
     <t>SCSTATE Offensive REBOUND by team</t>
   </si>
   <si>
     <t>Media timeout</t>
   </si>
   <si>
-    <t>Subbing in for COPPINM - Gross, Isaiah</t>
-  </si>
-  <si>
-    <t>Subbing out for COPPINM - Prescott, Darryon</t>
-  </si>
-  <si>
     <t>Subbing in for SCSTATE - Taylor, Atiba</t>
   </si>
   <si>
@@ -760,39 +724,21 @@
     <t>3 Pointer MISSED by SCSTATE's Simpson, Jordan</t>
   </si>
   <si>
-    <t>COPPINM Defensive REBOUND by Sparrow, Camaren</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by COPPINM's Sparrow, Camaren</t>
-  </si>
-  <si>
     <t>SCSTATE Defensive REBOUND by Taylor, Mitchell</t>
   </si>
   <si>
     <t>3 Pointer GOOD by SCSTATE's Taylor, Atiba</t>
   </si>
   <si>
-    <t>3 Pointer GOOD by COPPINM's Gross, Isaiah</t>
-  </si>
-  <si>
-    <t>COPPINM Assist by Spurlock, Greg</t>
-  </si>
-  <si>
     <t>Jumper GOOD by SCSTATE's Marrow, James</t>
   </si>
   <si>
     <t>SCSTATE Assist by Taylor, Atiba</t>
   </si>
   <si>
-    <t>COPPINM Turnover by Sparrow, Camaren</t>
-  </si>
-  <si>
     <t>SCSTATE Steal by Taylor, Mitchell</t>
   </si>
   <si>
-    <t>Foul on COPPINM's Spurlock, Greg</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by SCSTATE's Taylor, Mitchell</t>
   </si>
   <si>
@@ -802,21 +748,12 @@
     <t>Free Throw GOOD by SCSTATE's Taylor, Mitchell</t>
   </si>
   <si>
-    <t>Subbing in for COPPINM - Battle, Malik</t>
-  </si>
-  <si>
-    <t>Subbing out for COPPINM - Archey, Ryan</t>
-  </si>
-  <si>
     <t>Subbing in for SCSTATE - Jones, Drayton</t>
   </si>
   <si>
     <t>Subbing out for SCSTATE - Mccarty, Caleb</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by COPPINM's Gross, Isaiah</t>
-  </si>
-  <si>
     <t>SCSTATE Defensive REBOUND by team</t>
   </si>
   <si>
@@ -841,33 +778,12 @@
     <t>Subbing out for SCSTATE - Taylor, Atiba</t>
   </si>
   <si>
-    <t>COPPINM Turnover by Gross, Isaiah</t>
-  </si>
-  <si>
-    <t>COPPINM takes a 30-second time out.</t>
-  </si>
-  <si>
     <t>SCSTATE Turnover by Everett, Davion</t>
   </si>
   <si>
     <t>Foul on SCSTATE's Everett, Davion</t>
   </si>
   <si>
-    <t>Subbing in for COPPINM - Horton, Khali</t>
-  </si>
-  <si>
-    <t>Subbing out for COPPINM - Spurlock, Greg</t>
-  </si>
-  <si>
-    <t>Subbing in for COPPINM - Archey, Ryan</t>
-  </si>
-  <si>
-    <t>Subbing out for COPPINM - Gross, Isaiah</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by COPPINM's Archey, Ryan</t>
-  </si>
-  <si>
     <t>SCSTATE Defensive REBOUND by Simpson, Jordan</t>
   </si>
   <si>
@@ -880,24 +796,9 @@
     <t>Foul on SCSTATE's Marrow, James</t>
   </si>
   <si>
-    <t>Free Throw MISSED by COPPINM's Archey, Ryan</t>
-  </si>
-  <si>
-    <t>COPPINM gets a REBOUND from a dead ball.</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by COPPINM's Archey, Ryan</t>
-  </si>
-  <si>
     <t>SCSTATE Turnover by Teal, Michael</t>
   </si>
   <si>
-    <t>COPPINM Steal by Archey, Ryan</t>
-  </si>
-  <si>
-    <t>Layup MISSED by COPPINM's Archey, Ryan</t>
-  </si>
-  <si>
     <t>SCSTATE Defensive REBOUND by Teal, Michael</t>
   </si>
   <si>
@@ -916,45 +817,12 @@
     <t>3 Pointer GOOD by SCSTATE's Dubinsky, Wilson</t>
   </si>
   <si>
-    <t>Layup GOOD by COPPINM's Archey, Ryan</t>
-  </si>
-  <si>
-    <t>COPPINM Assist by Tekavcic, Luka</t>
-  </si>
-  <si>
-    <t>Subbing in for COPPINM - Tekavcic, Luka</t>
-  </si>
-  <si>
-    <t>Subbing out for COPPINM - Sparrow, Camaren</t>
-  </si>
-  <si>
     <t>SCSTATE Turnover by Jones, Drayton</t>
   </si>
   <si>
-    <t>COPPINM Steal by Winston, Justin</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by COPPINM's Winston, Justin</t>
-  </si>
-  <si>
-    <t>Foul on COPPINM's Archey, Ryan</t>
-  </si>
-  <si>
     <t>Subbing out for SCSTATE - Jones, Drayton</t>
   </si>
   <si>
-    <t>COPPINM Turnover by Horton, Khali</t>
-  </si>
-  <si>
-    <t>Foul on COPPINM's Horton, Khali</t>
-  </si>
-  <si>
-    <t>Subbing in for COPPINM - Prescott, Darryon</t>
-  </si>
-  <si>
-    <t>Subbing out for COPPINM - Tekavcic, Luka</t>
-  </si>
-  <si>
     <t>3 Pointer GOOD by SCSTATE's Teal, Michael</t>
   </si>
   <si>
@@ -964,27 +832,9 @@
     <t>SCSTATE Offensive REBOUND by Teal, Michael</t>
   </si>
   <si>
-    <t>Subbing in for COPPINM - Sparrow, Camaren</t>
-  </si>
-  <si>
-    <t>COPPINM Assist by Battle, Malik</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by COPPINM's Battle, Malik</t>
-  </si>
-  <si>
-    <t>COPPINM Assist by Archey, Ryan</t>
-  </si>
-  <si>
     <t>SCSTATE takes a 30-second time out.</t>
   </si>
   <si>
-    <t>Subbing in for COPPINM - Spurlock, Greg</t>
-  </si>
-  <si>
-    <t>Subbing out for COPPINM - Winston, Justin</t>
-  </si>
-  <si>
     <t>Foul on SCSTATE's Brown, Raquan</t>
   </si>
   <si>
@@ -1003,30 +853,12 @@
     <t>Subbing out for SCSTATE - Dubinsky, Wilson</t>
   </si>
   <si>
-    <t>Jumper MISSED by COPPINM's Tekavcic, Luka</t>
-  </si>
-  <si>
     <t>SCSTATE Block by Mccarty, Caleb</t>
   </si>
   <si>
     <t>Free Throw GOOD by SCSTATE's Taylor, Atiba</t>
   </si>
   <si>
-    <t>Subbing out for COPPINM - Horton, Khali</t>
-  </si>
-  <si>
-    <t>COPPINM Offensive REBOUND by Battle, Malik</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by COPPINM's Battle, Malik</t>
-  </si>
-  <si>
-    <t>COPPINM Defensive REBOUND by Battle, Malik</t>
-  </si>
-  <si>
-    <t>COPPINM Turnover by Tekavcic, Luka</t>
-  </si>
-  <si>
     <t>Jumper MISSED by SCSTATE's Simpson, Jordan</t>
   </si>
   <si>
@@ -1039,9 +871,6 @@
     <t>Slam Dunk GOOD by SCSTATE's Mccarty, Caleb</t>
   </si>
   <si>
-    <t>Layup MISSED by COPPINM's Tekavcic, Luka</t>
-  </si>
-  <si>
     <t>SCSTATE Defensive REBOUND by Taylor, Atiba</t>
   </si>
   <si>
@@ -1051,12 +880,6 @@
     <t>Subbing in for SCSTATE - James, Dallas</t>
   </si>
   <si>
-    <t>3 Pointer GOOD by COPPINM's Tekavcic, Luka</t>
-  </si>
-  <si>
-    <t>COPPINM Assist by Sparrow, Camaren</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by SCSTATE's Taylor, Atiba</t>
   </si>
   <si>
@@ -1066,45 +889,15 @@
     <t>Layup GOOD by SCSTATE's James, Dallas</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by COPPINM's Spurlock, Greg</t>
-  </si>
-  <si>
-    <t>COPPINM Offensive REBOUND by Sparrow, Camaren</t>
-  </si>
-  <si>
     <t>Foul on SCSTATE's Simpson, Jordan</t>
   </si>
   <si>
-    <t>Free Throw MISSED by COPPINM's Sparrow, Camaren</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by COPPINM's Sparrow, Camaren</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by SCSTATE's Dubinsky, Wilson</t>
   </si>
   <si>
-    <t>COPPINM Defensive REBOUND by Spurlock, Greg</t>
-  </si>
-  <si>
-    <t>COPPINM Turnover by Spurlock, Greg</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by SCSTATE's Brown, Raquan</t>
   </si>
   <si>
-    <t>COPPINM Defensive REBOUND by Tekavcic, Luka</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by COPPINM's Battle, Malik</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by COPPINM's Winston, Justin</t>
-  </si>
-  <si>
-    <t>Foul on COPPINM's Winston, Justin</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by SCSTATE's Mccarty, Caleb</t>
   </si>
   <si>
@@ -1123,24 +916,6 @@
     <t>Layup MISSED by SCSTATE's Everett, Davion</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by COPPINM's Horton, Khali</t>
-  </si>
-  <si>
-    <t>COPPINM Offensive REBOUND by team</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by COPPINM's Winston, Justin</t>
-  </si>
-  <si>
-    <t>Foul on COPPINM's Sparrow, Camaren</t>
-  </si>
-  <si>
-    <t>Foul on COPPINM's Gross, Isaiah</t>
-  </si>
-  <si>
-    <t>COPPINM Steal by Gross, Isaiah</t>
-  </si>
-  <si>
     <t>3 Pointer GOOD by SCSTATE's Taylor, Mitchell</t>
   </si>
   <si>
@@ -1150,12 +925,6 @@
     <t>Foul on SCSTATE's Croskey, Omar</t>
   </si>
   <si>
-    <t>Layup MISSED by COPPINM's Winston, Justin</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by COPPINM's Winston, Justin</t>
-  </si>
-  <si>
     <t>SCSTATE Defensive REBOUND by Dubinsky, Wilson</t>
   </si>
   <si>
@@ -1171,9 +940,6 @@
     <t>Jumper MISSED by SCSTATE's Taylor, Mitchell</t>
   </si>
   <si>
-    <t>Jumper MISSED by COPPINM's Sparrow, Camaren</t>
-  </si>
-  <si>
     <t>SCSTATE Defensive REBOUND by Everett, Davion</t>
   </si>
   <si>
@@ -1198,36 +964,12 @@
     <t>Jumper MISSED by SCSTATE's Dubinsky, Wilson</t>
   </si>
   <si>
-    <t>Foul on COPPINM's Tekavcic, Luka</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by SCSTATE's Jones, Drayton</t>
   </si>
   <si>
-    <t>COPPINM Turnover by Winston, Justin</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by SCSTATE's Croskey, Omar</t>
   </si>
   <si>
-    <t>Subbing out for COPPINM - Battle, Malik</t>
-  </si>
-  <si>
-    <t>COPPINM Offensive REBOUND by Gross, Isaiah</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by COPPINM's Gross, Isaiah</t>
-  </si>
-  <si>
-    <t>Layup GOOD by COPPINM's Spurlock, Greg</t>
-  </si>
-  <si>
-    <t>COPPINM Assist by Gross, Isaiah</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by COPPINM's Spurlock, Greg</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by SCSTATE's Everett, Davion</t>
   </si>
   <si>
@@ -1237,62 +979,326 @@
     <t>SCSTATE Assist by Everett, Davion</t>
   </si>
   <si>
-    <t>Slam Dunk MISSED by COPPINM's Winston, Justin</t>
-  </si>
-  <si>
     <t>Foul on SCSTATE's Teal, Michael</t>
   </si>
   <si>
-    <t>Subbing in for COPPINM - Williams, Ronnie</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by SCSTATE's Brown, Raquan</t>
   </si>
   <si>
     <t>Foul on SCSTATE's Dubinsky, Wilson</t>
   </si>
   <si>
-    <t>Free Throw GOOD by COPPINM's Battle, Malik</t>
-  </si>
-  <si>
-    <t>Free Throw MISSED by COPPINM's Battle, Malik</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by SCSTATE's Croskey, Omar</t>
   </si>
   <si>
-    <t>Subbing out for COPPINM - Williams, Ronnie</t>
-  </si>
-  <si>
-    <t>Tip In GOOD by COPPINM's Archey, Ryan</t>
-  </si>
-  <si>
     <t>Slam Dunk MISSED by SCSTATE's Everett, Davion</t>
   </si>
   <si>
     <t>Slam Dunk MISSED by SCSTATE's Mccarty, Caleb</t>
   </si>
   <si>
-    <t>COPPINM Defensive REBOUND by team</t>
-  </si>
-  <si>
-    <t>COPPINM Offensive REBOUND by Winston, Justin</t>
-  </si>
-  <si>
-    <t>Tip In GOOD by COPPINM's Winston, Justin</t>
-  </si>
-  <si>
-    <t>COPPINM takes a TIMEOUT</t>
-  </si>
-  <si>
     <t>SCSTATE Assist by Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>Coppin Defensive REBOUND by Winston, Justin</t>
+  </si>
+  <si>
+    <t>Layup MISSED by Coppin's Prescott, Darryon</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Coppin's Winston, Justin</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by Coppin's Archey, Ryan</t>
+  </si>
+  <si>
+    <t>Coppin Offensive REBOUND by Horton, Khali</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by Coppin's Archey, Ryan</t>
+  </si>
+  <si>
+    <t>Coppin Turnover by Prescott, Darryon</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Coppin's Winston, Justin</t>
+  </si>
+  <si>
+    <t>Foul on Coppin's Prescott, Darryon</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by Coppin's Prescott, Darryon</t>
+  </si>
+  <si>
+    <t>Coppin Assist by Winston, Justin</t>
+  </si>
+  <si>
+    <t>Coppin Block by Winston, Justin</t>
+  </si>
+  <si>
+    <t>Subbing in for Coppin - Gross, Isaiah</t>
+  </si>
+  <si>
+    <t>Subbing out for Coppin - Prescott, Darryon</t>
+  </si>
+  <si>
+    <t>Coppin Defensive REBOUND by Sparrow, Camaren</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Coppin's Sparrow, Camaren</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by Coppin's Gross, Isaiah</t>
+  </si>
+  <si>
+    <t>Coppin Assist by Spurlock, Greg</t>
+  </si>
+  <si>
+    <t>Coppin Turnover by Sparrow, Camaren</t>
+  </si>
+  <si>
+    <t>Foul on Coppin's Spurlock, Greg</t>
+  </si>
+  <si>
+    <t>Subbing in for Coppin - Battle, Malik</t>
+  </si>
+  <si>
+    <t>Subbing out for Coppin - Archey, Ryan</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Coppin's Gross, Isaiah</t>
+  </si>
+  <si>
+    <t>Coppin Turnover by Gross, Isaiah</t>
+  </si>
+  <si>
+    <t>Coppin takes a 30-second time out.</t>
+  </si>
+  <si>
+    <t>Subbing in for Coppin - Horton, Khali</t>
+  </si>
+  <si>
+    <t>Subbing out for Coppin - Spurlock, Greg</t>
+  </si>
+  <si>
+    <t>Subbing in for Coppin - Archey, Ryan</t>
+  </si>
+  <si>
+    <t>Subbing out for Coppin - Gross, Isaiah</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Coppin's Archey, Ryan</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by Coppin's Archey, Ryan</t>
+  </si>
+  <si>
+    <t>Coppin gets a REBOUND from a dead ball.</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by Coppin's Archey, Ryan</t>
+  </si>
+  <si>
+    <t>Coppin Steal by Archey, Ryan</t>
+  </si>
+  <si>
+    <t>Layup MISSED by Coppin's Archey, Ryan</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Coppin's Archey, Ryan</t>
+  </si>
+  <si>
+    <t>Coppin Assist by Tekavcic, Luka</t>
+  </si>
+  <si>
+    <t>Subbing in for Coppin - Tekavcic, Luka</t>
+  </si>
+  <si>
+    <t>Subbing out for Coppin - Sparrow, Camaren</t>
+  </si>
+  <si>
+    <t>Coppin Steal by Winston, Justin</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by Coppin's Winston, Justin</t>
+  </si>
+  <si>
+    <t>Foul on Coppin's Archey, Ryan</t>
+  </si>
+  <si>
+    <t>Coppin Turnover by Horton, Khali</t>
+  </si>
+  <si>
+    <t>Foul on Coppin's Horton, Khali</t>
+  </si>
+  <si>
+    <t>Subbing in for Coppin - Prescott, Darryon</t>
+  </si>
+  <si>
+    <t>Subbing out for Coppin - Tekavcic, Luka</t>
+  </si>
+  <si>
+    <t>Subbing in for Coppin - Sparrow, Camaren</t>
+  </si>
+  <si>
+    <t>Coppin Assist by Battle, Malik</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by Coppin's Battle, Malik</t>
+  </si>
+  <si>
+    <t>Coppin Assist by Archey, Ryan</t>
+  </si>
+  <si>
+    <t>Subbing in for Coppin - Spurlock, Greg</t>
+  </si>
+  <si>
+    <t>Subbing out for Coppin - Winston, Justin</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by Coppin's Tekavcic, Luka</t>
+  </si>
+  <si>
+    <t>Subbing out for Coppin - Horton, Khali</t>
+  </si>
+  <si>
+    <t>Coppin Offensive REBOUND by Battle, Malik</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by Coppin's Battle, Malik</t>
+  </si>
+  <si>
+    <t>Coppin Defensive REBOUND by Battle, Malik</t>
+  </si>
+  <si>
+    <t>Coppin Turnover by Tekavcic, Luka</t>
+  </si>
+  <si>
+    <t>Layup MISSED by Coppin's Tekavcic, Luka</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by Coppin's Tekavcic, Luka</t>
+  </si>
+  <si>
+    <t>Coppin Assist by Sparrow, Camaren</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Coppin's Spurlock, Greg</t>
+  </si>
+  <si>
+    <t>Coppin Offensive REBOUND by Sparrow, Camaren</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by Coppin's Sparrow, Camaren</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by Coppin's Sparrow, Camaren</t>
+  </si>
+  <si>
+    <t>Coppin Defensive REBOUND by Spurlock, Greg</t>
+  </si>
+  <si>
+    <t>Coppin Turnover by Spurlock, Greg</t>
+  </si>
+  <si>
+    <t>Coppin Defensive REBOUND by Tekavcic, Luka</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Coppin's Battle, Malik</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by Coppin's Winston, Justin</t>
+  </si>
+  <si>
+    <t>Foul on Coppin's Winston, Justin</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Coppin's Horton, Khali</t>
+  </si>
+  <si>
+    <t>Coppin Offensive REBOUND by team</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by Coppin's Winston, Justin</t>
+  </si>
+  <si>
+    <t>Foul on Coppin's Sparrow, Camaren</t>
+  </si>
+  <si>
+    <t>Foul on Coppin's Gross, Isaiah</t>
+  </si>
+  <si>
+    <t>Coppin Steal by Gross, Isaiah</t>
+  </si>
+  <si>
+    <t>Layup MISSED by Coppin's Winston, Justin</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by Coppin's Winston, Justin</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by Coppin's Sparrow, Camaren</t>
+  </si>
+  <si>
+    <t>Foul on Coppin's Tekavcic, Luka</t>
+  </si>
+  <si>
+    <t>Coppin Turnover by Winston, Justin</t>
+  </si>
+  <si>
+    <t>Subbing out for Coppin - Battle, Malik</t>
+  </si>
+  <si>
+    <t>Coppin Offensive REBOUND by Gross, Isaiah</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by Coppin's Gross, Isaiah</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Coppin's Spurlock, Greg</t>
+  </si>
+  <si>
+    <t>Coppin Assist by Gross, Isaiah</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by Coppin's Spurlock, Greg</t>
+  </si>
+  <si>
+    <t>Slam Dunk MISSED by Coppin's Winston, Justin</t>
+  </si>
+  <si>
+    <t>Subbing in for Coppin - Williams, Ronnie</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by Coppin's Battle, Malik</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by Coppin's Battle, Malik</t>
+  </si>
+  <si>
+    <t>Subbing out for Coppin - Williams, Ronnie</t>
+  </si>
+  <si>
+    <t>Tip In GOOD by Coppin's Archey, Ryan</t>
+  </si>
+  <si>
+    <t>Coppin Defensive REBOUND by team</t>
+  </si>
+  <si>
+    <t>Coppin Offensive REBOUND by Winston, Justin</t>
+  </si>
+  <si>
+    <t>Tip In GOOD by Coppin's Winston, Justin</t>
+  </si>
+  <si>
+    <t>Coppin takes a TIMEOUT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1355,13 +1361,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1399,7 +1413,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1433,6 +1447,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1467,9 +1482,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1642,14 +1658,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E474"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1666,7 +1684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1683,7 +1701,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1700,7 +1718,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1717,7 +1735,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1731,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1748,10 +1766,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1765,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1782,10 +1800,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1799,10 +1817,10 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1816,10 +1834,10 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1833,10 +1851,10 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1850,10 +1868,10 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1867,10 +1885,10 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1884,10 +1902,10 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1901,10 +1919,10 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1918,10 +1936,10 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1935,10 +1953,10 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1952,10 +1970,10 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1969,10 +1987,10 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1986,10 +2004,10 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2003,10 +2021,10 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2020,10 +2038,10 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2037,10 +2055,10 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2054,10 +2072,10 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2071,10 +2089,10 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2088,10 +2106,10 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2105,10 +2123,10 @@
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2122,10 +2140,10 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2139,10 +2157,10 @@
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2156,10 +2174,10 @@
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2173,10 +2191,10 @@
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2190,10 +2208,10 @@
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2207,10 +2225,10 @@
         <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2224,10 +2242,10 @@
         <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2241,10 +2259,10 @@
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2258,10 +2276,10 @@
         <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2275,10 +2293,10 @@
         <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2292,10 +2310,10 @@
         <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2309,10 +2327,10 @@
         <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2326,10 +2344,10 @@
         <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2343,10 +2361,10 @@
         <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2360,10 +2378,10 @@
         <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2377,10 +2395,10 @@
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2394,10 +2412,10 @@
         <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2411,10 +2429,10 @@
         <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2428,10 +2446,10 @@
         <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2445,10 +2463,10 @@
         <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2462,10 +2480,10 @@
         <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2479,10 +2497,10 @@
         <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2496,10 +2514,10 @@
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2513,10 +2531,10 @@
         <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2530,10 +2548,10 @@
         <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2547,10 +2565,10 @@
         <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2564,10 +2582,10 @@
         <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2581,10 +2599,10 @@
         <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2598,10 +2616,10 @@
         <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2615,10 +2633,10 @@
         <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2632,10 +2650,10 @@
         <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2649,10 +2667,10 @@
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2666,10 +2684,10 @@
         <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2683,10 +2701,10 @@
         <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2700,10 +2718,10 @@
         <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2717,10 +2735,10 @@
         <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2734,10 +2752,10 @@
         <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2751,10 +2769,10 @@
         <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2768,10 +2786,10 @@
         <v>17</v>
       </c>
       <c r="E66" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2785,10 +2803,10 @@
         <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2802,10 +2820,10 @@
         <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2819,10 +2837,10 @@
         <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2836,10 +2854,10 @@
         <v>17</v>
       </c>
       <c r="E70" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2853,10 +2871,10 @@
         <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2870,10 +2888,10 @@
         <v>17</v>
       </c>
       <c r="E72" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2887,10 +2905,10 @@
         <v>17</v>
       </c>
       <c r="E73" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2904,10 +2922,10 @@
         <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2921,10 +2939,10 @@
         <v>17</v>
       </c>
       <c r="E75" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2938,10 +2956,10 @@
         <v>19</v>
       </c>
       <c r="E76" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2955,10 +2973,10 @@
         <v>19</v>
       </c>
       <c r="E77" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2972,10 +2990,10 @@
         <v>19</v>
       </c>
       <c r="E78" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2989,10 +3007,10 @@
         <v>19</v>
       </c>
       <c r="E79" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3006,10 +3024,10 @@
         <v>19</v>
       </c>
       <c r="E80" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3023,10 +3041,10 @@
         <v>19</v>
       </c>
       <c r="E81" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3040,10 +3058,10 @@
         <v>19</v>
       </c>
       <c r="E82" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3057,10 +3075,10 @@
         <v>19</v>
       </c>
       <c r="E83" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3074,10 +3092,10 @@
         <v>19</v>
       </c>
       <c r="E84" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3091,10 +3109,10 @@
         <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3108,10 +3126,10 @@
         <v>19</v>
       </c>
       <c r="E86" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3125,10 +3143,10 @@
         <v>19</v>
       </c>
       <c r="E87" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3142,10 +3160,10 @@
         <v>19</v>
       </c>
       <c r="E88" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3159,10 +3177,10 @@
         <v>19</v>
       </c>
       <c r="E89" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3176,10 +3194,10 @@
         <v>19</v>
       </c>
       <c r="E90" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3193,10 +3211,10 @@
         <v>19</v>
       </c>
       <c r="E91" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3210,10 +3228,10 @@
         <v>19</v>
       </c>
       <c r="E92" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3227,10 +3245,10 @@
         <v>19</v>
       </c>
       <c r="E93" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3244,10 +3262,10 @@
         <v>19</v>
       </c>
       <c r="E94" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3261,10 +3279,10 @@
         <v>19</v>
       </c>
       <c r="E95" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3278,10 +3296,10 @@
         <v>19</v>
       </c>
       <c r="E96" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3295,10 +3313,10 @@
         <v>19</v>
       </c>
       <c r="E97" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3312,10 +3330,10 @@
         <v>19</v>
       </c>
       <c r="E98" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3329,10 +3347,10 @@
         <v>19</v>
       </c>
       <c r="E99" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3346,10 +3364,10 @@
         <v>19</v>
       </c>
       <c r="E100" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3363,10 +3381,10 @@
         <v>19</v>
       </c>
       <c r="E101" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3380,10 +3398,10 @@
         <v>19</v>
       </c>
       <c r="E102" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3397,10 +3415,10 @@
         <v>19</v>
       </c>
       <c r="E103" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3414,10 +3432,10 @@
         <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3431,10 +3449,10 @@
         <v>19</v>
       </c>
       <c r="E105" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3448,10 +3466,10 @@
         <v>19</v>
       </c>
       <c r="E106" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3465,10 +3483,10 @@
         <v>19</v>
       </c>
       <c r="E107" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -3482,10 +3500,10 @@
         <v>19</v>
       </c>
       <c r="E108" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3499,10 +3517,10 @@
         <v>19</v>
       </c>
       <c r="E109" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3516,10 +3534,10 @@
         <v>22</v>
       </c>
       <c r="E110" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -3533,10 +3551,10 @@
         <v>22</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -3550,10 +3568,10 @@
         <v>22</v>
       </c>
       <c r="E112" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -3567,10 +3585,10 @@
         <v>22</v>
       </c>
       <c r="E113" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3584,10 +3602,10 @@
         <v>22</v>
       </c>
       <c r="E114" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3601,10 +3619,10 @@
         <v>22</v>
       </c>
       <c r="E115" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3618,10 +3636,10 @@
         <v>22</v>
       </c>
       <c r="E116" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -3635,10 +3653,10 @@
         <v>22</v>
       </c>
       <c r="E117" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -3652,10 +3670,10 @@
         <v>22</v>
       </c>
       <c r="E118" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -3669,10 +3687,10 @@
         <v>22</v>
       </c>
       <c r="E119" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3686,10 +3704,10 @@
         <v>23</v>
       </c>
       <c r="E120" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -3703,10 +3721,10 @@
         <v>24</v>
       </c>
       <c r="E121" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3720,10 +3738,10 @@
         <v>24</v>
       </c>
       <c r="E122" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -3737,10 +3755,10 @@
         <v>24</v>
       </c>
       <c r="E123" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3754,10 +3772,10 @@
         <v>24</v>
       </c>
       <c r="E124" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -3771,10 +3789,10 @@
         <v>24</v>
       </c>
       <c r="E125" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3788,10 +3806,10 @@
         <v>24</v>
       </c>
       <c r="E126" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -3805,10 +3823,10 @@
         <v>24</v>
       </c>
       <c r="E127" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -3822,10 +3840,10 @@
         <v>27</v>
       </c>
       <c r="E128" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -3839,10 +3857,10 @@
         <v>27</v>
       </c>
       <c r="E129" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3856,10 +3874,10 @@
         <v>27</v>
       </c>
       <c r="E130" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -3873,10 +3891,10 @@
         <v>27</v>
       </c>
       <c r="E131" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -3890,10 +3908,10 @@
         <v>27</v>
       </c>
       <c r="E132" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -3907,10 +3925,10 @@
         <v>30</v>
       </c>
       <c r="E133" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -3924,10 +3942,10 @@
         <v>30</v>
       </c>
       <c r="E134" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -3941,10 +3959,10 @@
         <v>30</v>
       </c>
       <c r="E135" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -3958,10 +3976,10 @@
         <v>30</v>
       </c>
       <c r="E136" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -3975,10 +3993,10 @@
         <v>30</v>
       </c>
       <c r="E137" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -3992,10 +4010,10 @@
         <v>30</v>
       </c>
       <c r="E138" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -4009,10 +4027,10 @@
         <v>30</v>
       </c>
       <c r="E139" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4026,10 +4044,10 @@
         <v>30</v>
       </c>
       <c r="E140" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -4043,10 +4061,10 @@
         <v>32</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4060,10 +4078,10 @@
         <v>32</v>
       </c>
       <c r="E142" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4077,10 +4095,10 @@
         <v>32</v>
       </c>
       <c r="E143" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
@@ -4094,10 +4112,10 @@
         <v>32</v>
       </c>
       <c r="E144" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4111,10 +4129,10 @@
         <v>32</v>
       </c>
       <c r="E145" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -4128,10 +4146,10 @@
         <v>32</v>
       </c>
       <c r="E146" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4145,10 +4163,10 @@
         <v>32</v>
       </c>
       <c r="E147" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
@@ -4162,10 +4180,10 @@
         <v>32</v>
       </c>
       <c r="E148" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1</v>
       </c>
@@ -4179,10 +4197,10 @@
         <v>32</v>
       </c>
       <c r="E149" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4196,10 +4214,10 @@
         <v>35</v>
       </c>
       <c r="E150" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4213,10 +4231,10 @@
         <v>35</v>
       </c>
       <c r="E151" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -4230,10 +4248,10 @@
         <v>35</v>
       </c>
       <c r="E152" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -4247,10 +4265,10 @@
         <v>35</v>
       </c>
       <c r="E153" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
@@ -4264,10 +4282,10 @@
         <v>35</v>
       </c>
       <c r="E154" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -4281,10 +4299,10 @@
         <v>35</v>
       </c>
       <c r="E155" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -4298,10 +4316,10 @@
         <v>35</v>
       </c>
       <c r="E156" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -4315,10 +4333,10 @@
         <v>35</v>
       </c>
       <c r="E157" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -4332,10 +4350,10 @@
         <v>37</v>
       </c>
       <c r="E158" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -4349,10 +4367,10 @@
         <v>37</v>
       </c>
       <c r="E159" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -4366,10 +4384,10 @@
         <v>37</v>
       </c>
       <c r="E160" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1</v>
       </c>
@@ -4383,10 +4401,10 @@
         <v>37</v>
       </c>
       <c r="E161" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
@@ -4400,10 +4418,10 @@
         <v>37</v>
       </c>
       <c r="E162" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
@@ -4417,10 +4435,10 @@
         <v>37</v>
       </c>
       <c r="E163" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -4434,10 +4452,10 @@
         <v>37</v>
       </c>
       <c r="E164" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -4451,10 +4469,10 @@
         <v>37</v>
       </c>
       <c r="E165" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1</v>
       </c>
@@ -4468,10 +4486,10 @@
         <v>38</v>
       </c>
       <c r="E166" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -4485,10 +4503,10 @@
         <v>39</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -4502,10 +4520,10 @@
         <v>39</v>
       </c>
       <c r="E168" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
@@ -4519,10 +4537,10 @@
         <v>39</v>
       </c>
       <c r="E169" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -4536,10 +4554,10 @@
         <v>39</v>
       </c>
       <c r="E170" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1</v>
       </c>
@@ -4553,10 +4571,10 @@
         <v>39</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1</v>
       </c>
@@ -4570,10 +4588,10 @@
         <v>39</v>
       </c>
       <c r="E172" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1</v>
       </c>
@@ -4587,10 +4605,10 @@
         <v>39</v>
       </c>
       <c r="E173" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1</v>
       </c>
@@ -4604,10 +4622,10 @@
         <v>39</v>
       </c>
       <c r="E174" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -4621,10 +4639,10 @@
         <v>39</v>
       </c>
       <c r="E175" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
@@ -4638,10 +4656,10 @@
         <v>39</v>
       </c>
       <c r="E176" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1</v>
       </c>
@@ -4655,10 +4673,10 @@
         <v>39</v>
       </c>
       <c r="E177" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -4672,10 +4690,10 @@
         <v>39</v>
       </c>
       <c r="E178" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
@@ -4689,10 +4707,10 @@
         <v>39</v>
       </c>
       <c r="E179" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1</v>
       </c>
@@ -4706,10 +4724,10 @@
         <v>39</v>
       </c>
       <c r="E180" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1</v>
       </c>
@@ -4723,10 +4741,10 @@
         <v>39</v>
       </c>
       <c r="E181" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -4740,10 +4758,10 @@
         <v>39</v>
       </c>
       <c r="E182" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -4757,10 +4775,10 @@
         <v>41</v>
       </c>
       <c r="E183" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1</v>
       </c>
@@ -4774,10 +4792,10 @@
         <v>41</v>
       </c>
       <c r="E184" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1</v>
       </c>
@@ -4791,10 +4809,10 @@
         <v>41</v>
       </c>
       <c r="E185" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -4808,10 +4826,10 @@
         <v>41</v>
       </c>
       <c r="E186" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1</v>
       </c>
@@ -4825,10 +4843,10 @@
         <v>41</v>
       </c>
       <c r="E187" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
@@ -4842,10 +4860,10 @@
         <v>41</v>
       </c>
       <c r="E188" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
@@ -4859,10 +4877,10 @@
         <v>41</v>
       </c>
       <c r="E189" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
@@ -4876,10 +4894,10 @@
         <v>41</v>
       </c>
       <c r="E190" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
@@ -4893,10 +4911,10 @@
         <v>41</v>
       </c>
       <c r="E191" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
@@ -4910,10 +4928,10 @@
         <v>41</v>
       </c>
       <c r="E192" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
@@ -4927,10 +4945,10 @@
         <v>41</v>
       </c>
       <c r="E193" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
@@ -4944,10 +4962,10 @@
         <v>41</v>
       </c>
       <c r="E194" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -4961,10 +4979,10 @@
         <v>41</v>
       </c>
       <c r="E195" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -4978,10 +4996,10 @@
         <v>41</v>
       </c>
       <c r="E196" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -4995,10 +5013,10 @@
         <v>43</v>
       </c>
       <c r="E197" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -5012,10 +5030,10 @@
         <v>43</v>
       </c>
       <c r="E198" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -5029,10 +5047,10 @@
         <v>43</v>
       </c>
       <c r="E199" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
@@ -5046,10 +5064,10 @@
         <v>43</v>
       </c>
       <c r="E200" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -5063,10 +5081,10 @@
         <v>43</v>
       </c>
       <c r="E201" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -5080,10 +5098,10 @@
         <v>43</v>
       </c>
       <c r="E202" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
@@ -5097,10 +5115,10 @@
         <v>43</v>
       </c>
       <c r="E203" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
@@ -5114,10 +5132,10 @@
         <v>43</v>
       </c>
       <c r="E204" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1</v>
       </c>
@@ -5131,10 +5149,10 @@
         <v>43</v>
       </c>
       <c r="E205" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1</v>
       </c>
@@ -5148,10 +5166,10 @@
         <v>43</v>
       </c>
       <c r="E206" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -5165,10 +5183,10 @@
         <v>43</v>
       </c>
       <c r="E207" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -5182,10 +5200,10 @@
         <v>43</v>
       </c>
       <c r="E208" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -5199,10 +5217,10 @@
         <v>43</v>
       </c>
       <c r="E209" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1</v>
       </c>
@@ -5216,10 +5234,10 @@
         <v>43</v>
       </c>
       <c r="E210" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1</v>
       </c>
@@ -5233,10 +5251,10 @@
         <v>43</v>
       </c>
       <c r="E211" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1</v>
       </c>
@@ -5250,10 +5268,10 @@
         <v>43</v>
       </c>
       <c r="E212" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1</v>
       </c>
@@ -5267,10 +5285,10 @@
         <v>43</v>
       </c>
       <c r="E213" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
@@ -5284,10 +5302,10 @@
         <v>44</v>
       </c>
       <c r="E214" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1</v>
       </c>
@@ -5301,10 +5319,10 @@
         <v>45</v>
       </c>
       <c r="E215" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1</v>
       </c>
@@ -5318,10 +5336,10 @@
         <v>45</v>
       </c>
       <c r="E216" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1</v>
       </c>
@@ -5335,10 +5353,10 @@
         <v>45</v>
       </c>
       <c r="E217" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -5352,10 +5370,10 @@
         <v>45</v>
       </c>
       <c r="E218" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1</v>
       </c>
@@ -5369,10 +5387,10 @@
         <v>45</v>
       </c>
       <c r="E219" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1</v>
       </c>
@@ -5386,10 +5404,10 @@
         <v>45</v>
       </c>
       <c r="E220" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
@@ -5403,10 +5421,10 @@
         <v>45</v>
       </c>
       <c r="E221" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2</v>
       </c>
@@ -5420,10 +5438,10 @@
         <v>45</v>
       </c>
       <c r="E222" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2</v>
       </c>
@@ -5437,10 +5455,10 @@
         <v>45</v>
       </c>
       <c r="E223" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2</v>
       </c>
@@ -5454,10 +5472,10 @@
         <v>45</v>
       </c>
       <c r="E224" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2</v>
       </c>
@@ -5471,10 +5489,10 @@
         <v>45</v>
       </c>
       <c r="E225" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2</v>
       </c>
@@ -5488,10 +5506,10 @@
         <v>45</v>
       </c>
       <c r="E226" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2</v>
       </c>
@@ -5505,10 +5523,10 @@
         <v>45</v>
       </c>
       <c r="E227" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2</v>
       </c>
@@ -5522,10 +5540,10 @@
         <v>45</v>
       </c>
       <c r="E228" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2</v>
       </c>
@@ -5539,10 +5557,10 @@
         <v>45</v>
       </c>
       <c r="E229" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2</v>
       </c>
@@ -5556,10 +5574,10 @@
         <v>45</v>
       </c>
       <c r="E230" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2</v>
       </c>
@@ -5573,10 +5591,10 @@
         <v>46</v>
       </c>
       <c r="E231" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2</v>
       </c>
@@ -5590,10 +5608,10 @@
         <v>46</v>
       </c>
       <c r="E232" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2</v>
       </c>
@@ -5607,10 +5625,10 @@
         <v>46</v>
       </c>
       <c r="E233" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2</v>
       </c>
@@ -5624,10 +5642,10 @@
         <v>46</v>
       </c>
       <c r="E234" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2</v>
       </c>
@@ -5641,10 +5659,10 @@
         <v>46</v>
       </c>
       <c r="E235" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2</v>
       </c>
@@ -5658,10 +5676,10 @@
         <v>46</v>
       </c>
       <c r="E236" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2</v>
       </c>
@@ -5675,10 +5693,10 @@
         <v>46</v>
       </c>
       <c r="E237" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2</v>
       </c>
@@ -5692,10 +5710,10 @@
         <v>46</v>
       </c>
       <c r="E238" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2</v>
       </c>
@@ -5709,10 +5727,10 @@
         <v>46</v>
       </c>
       <c r="E239" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2</v>
       </c>
@@ -5726,10 +5744,10 @@
         <v>48</v>
       </c>
       <c r="E240" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2</v>
       </c>
@@ -5743,10 +5761,10 @@
         <v>48</v>
       </c>
       <c r="E241" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2</v>
       </c>
@@ -5760,10 +5778,10 @@
         <v>48</v>
       </c>
       <c r="E242" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2</v>
       </c>
@@ -5777,10 +5795,10 @@
         <v>48</v>
       </c>
       <c r="E243" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2</v>
       </c>
@@ -5794,10 +5812,10 @@
         <v>48</v>
       </c>
       <c r="E244" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2</v>
       </c>
@@ -5811,10 +5829,10 @@
         <v>48</v>
       </c>
       <c r="E245" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2</v>
       </c>
@@ -5828,10 +5846,10 @@
         <v>48</v>
       </c>
       <c r="E246" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2</v>
       </c>
@@ -5845,10 +5863,10 @@
         <v>48</v>
       </c>
       <c r="E247" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2</v>
       </c>
@@ -5862,10 +5880,10 @@
         <v>48</v>
       </c>
       <c r="E248" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2</v>
       </c>
@@ -5879,10 +5897,10 @@
         <v>48</v>
       </c>
       <c r="E249" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2</v>
       </c>
@@ -5896,10 +5914,10 @@
         <v>48</v>
       </c>
       <c r="E250" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2</v>
       </c>
@@ -5913,10 +5931,10 @@
         <v>48</v>
       </c>
       <c r="E251" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2</v>
       </c>
@@ -5930,10 +5948,10 @@
         <v>48</v>
       </c>
       <c r="E252" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2</v>
       </c>
@@ -5947,10 +5965,10 @@
         <v>48</v>
       </c>
       <c r="E253" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2</v>
       </c>
@@ -5964,10 +5982,10 @@
         <v>48</v>
       </c>
       <c r="E254" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2</v>
       </c>
@@ -5981,10 +5999,10 @@
         <v>48</v>
       </c>
       <c r="E255" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2</v>
       </c>
@@ -5998,10 +6016,10 @@
         <v>48</v>
       </c>
       <c r="E256" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2</v>
       </c>
@@ -6015,10 +6033,10 @@
         <v>48</v>
       </c>
       <c r="E257" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2</v>
       </c>
@@ -6032,10 +6050,10 @@
         <v>48</v>
       </c>
       <c r="E258" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2</v>
       </c>
@@ -6049,10 +6067,10 @@
         <v>48</v>
       </c>
       <c r="E259" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2</v>
       </c>
@@ -6066,10 +6084,10 @@
         <v>48</v>
       </c>
       <c r="E260" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2</v>
       </c>
@@ -6083,10 +6101,10 @@
         <v>48</v>
       </c>
       <c r="E261" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2</v>
       </c>
@@ -6100,10 +6118,10 @@
         <v>48</v>
       </c>
       <c r="E262" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2</v>
       </c>
@@ -6117,10 +6135,10 @@
         <v>48</v>
       </c>
       <c r="E263" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2</v>
       </c>
@@ -6134,10 +6152,10 @@
         <v>48</v>
       </c>
       <c r="E264" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2</v>
       </c>
@@ -6151,10 +6169,10 @@
         <v>48</v>
       </c>
       <c r="E265" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2</v>
       </c>
@@ -6168,10 +6186,10 @@
         <v>48</v>
       </c>
       <c r="E266" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2</v>
       </c>
@@ -6185,10 +6203,10 @@
         <v>48</v>
       </c>
       <c r="E267" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2</v>
       </c>
@@ -6202,10 +6220,10 @@
         <v>48</v>
       </c>
       <c r="E268" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2</v>
       </c>
@@ -6219,10 +6237,10 @@
         <v>48</v>
       </c>
       <c r="E269" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2</v>
       </c>
@@ -6236,10 +6254,10 @@
         <v>48</v>
       </c>
       <c r="E270" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2</v>
       </c>
@@ -6253,10 +6271,10 @@
         <v>48</v>
       </c>
       <c r="E271" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2</v>
       </c>
@@ -6270,10 +6288,10 @@
         <v>51</v>
       </c>
       <c r="E272" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2</v>
       </c>
@@ -6287,10 +6305,10 @@
         <v>51</v>
       </c>
       <c r="E273" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2</v>
       </c>
@@ -6304,10 +6322,10 @@
         <v>51</v>
       </c>
       <c r="E274" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2</v>
       </c>
@@ -6321,10 +6339,10 @@
         <v>51</v>
       </c>
       <c r="E275" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2</v>
       </c>
@@ -6338,10 +6356,10 @@
         <v>51</v>
       </c>
       <c r="E276" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2</v>
       </c>
@@ -6355,10 +6373,10 @@
         <v>51</v>
       </c>
       <c r="E277" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2</v>
       </c>
@@ -6372,10 +6390,10 @@
         <v>51</v>
       </c>
       <c r="E278" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2</v>
       </c>
@@ -6389,10 +6407,10 @@
         <v>51</v>
       </c>
       <c r="E279" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2</v>
       </c>
@@ -6406,10 +6424,10 @@
         <v>51</v>
       </c>
       <c r="E280" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2</v>
       </c>
@@ -6423,10 +6441,10 @@
         <v>51</v>
       </c>
       <c r="E281" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2</v>
       </c>
@@ -6440,10 +6458,10 @@
         <v>51</v>
       </c>
       <c r="E282" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2</v>
       </c>
@@ -6457,10 +6475,10 @@
         <v>51</v>
       </c>
       <c r="E283" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2</v>
       </c>
@@ -6474,10 +6492,10 @@
         <v>51</v>
       </c>
       <c r="E284" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2</v>
       </c>
@@ -6491,10 +6509,10 @@
         <v>51</v>
       </c>
       <c r="E285" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2</v>
       </c>
@@ -6508,10 +6526,10 @@
         <v>51</v>
       </c>
       <c r="E286" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2</v>
       </c>
@@ -6525,10 +6543,10 @@
         <v>51</v>
       </c>
       <c r="E287" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2</v>
       </c>
@@ -6542,10 +6560,10 @@
         <v>51</v>
       </c>
       <c r="E288" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2</v>
       </c>
@@ -6559,10 +6577,10 @@
         <v>51</v>
       </c>
       <c r="E289" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2</v>
       </c>
@@ -6576,10 +6594,10 @@
         <v>51</v>
       </c>
       <c r="E290" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2</v>
       </c>
@@ -6593,10 +6611,10 @@
         <v>51</v>
       </c>
       <c r="E291" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2</v>
       </c>
@@ -6610,10 +6628,10 @@
         <v>51</v>
       </c>
       <c r="E292" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2</v>
       </c>
@@ -6627,10 +6645,10 @@
         <v>51</v>
       </c>
       <c r="E293" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2</v>
       </c>
@@ -6644,10 +6662,10 @@
         <v>51</v>
       </c>
       <c r="E294" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2</v>
       </c>
@@ -6661,10 +6679,10 @@
         <v>51</v>
       </c>
       <c r="E295" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2</v>
       </c>
@@ -6678,10 +6696,10 @@
         <v>52</v>
       </c>
       <c r="E296" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2</v>
       </c>
@@ -6695,10 +6713,10 @@
         <v>53</v>
       </c>
       <c r="E297" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2</v>
       </c>
@@ -6712,10 +6730,10 @@
         <v>53</v>
       </c>
       <c r="E298" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2</v>
       </c>
@@ -6729,10 +6747,10 @@
         <v>53</v>
       </c>
       <c r="E299" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2</v>
       </c>
@@ -6746,10 +6764,10 @@
         <v>53</v>
       </c>
       <c r="E300" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2</v>
       </c>
@@ -6763,10 +6781,10 @@
         <v>53</v>
       </c>
       <c r="E301" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>2</v>
       </c>
@@ -6780,10 +6798,10 @@
         <v>53</v>
       </c>
       <c r="E302" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2</v>
       </c>
@@ -6797,10 +6815,10 @@
         <v>53</v>
       </c>
       <c r="E303" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2</v>
       </c>
@@ -6814,10 +6832,10 @@
         <v>53</v>
       </c>
       <c r="E304" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2</v>
       </c>
@@ -6831,10 +6849,10 @@
         <v>53</v>
       </c>
       <c r="E305" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>2</v>
       </c>
@@ -6848,10 +6866,10 @@
         <v>53</v>
       </c>
       <c r="E306" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2</v>
       </c>
@@ -6865,10 +6883,10 @@
         <v>53</v>
       </c>
       <c r="E307" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>2</v>
       </c>
@@ -6882,10 +6900,10 @@
         <v>53</v>
       </c>
       <c r="E308" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2</v>
       </c>
@@ -6899,10 +6917,10 @@
         <v>55</v>
       </c>
       <c r="E309" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>2</v>
       </c>
@@ -6916,10 +6934,10 @@
         <v>55</v>
       </c>
       <c r="E310" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2</v>
       </c>
@@ -6933,10 +6951,10 @@
         <v>55</v>
       </c>
       <c r="E311" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2</v>
       </c>
@@ -6950,10 +6968,10 @@
         <v>55</v>
       </c>
       <c r="E312" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2</v>
       </c>
@@ -6967,10 +6985,10 @@
         <v>55</v>
       </c>
       <c r="E313" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2</v>
       </c>
@@ -6984,10 +7002,10 @@
         <v>55</v>
       </c>
       <c r="E314" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2</v>
       </c>
@@ -7001,10 +7019,10 @@
         <v>55</v>
       </c>
       <c r="E315" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2</v>
       </c>
@@ -7018,10 +7036,10 @@
         <v>55</v>
       </c>
       <c r="E316" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2</v>
       </c>
@@ -7035,10 +7053,10 @@
         <v>55</v>
       </c>
       <c r="E317" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2</v>
       </c>
@@ -7052,10 +7070,10 @@
         <v>55</v>
       </c>
       <c r="E318" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>2</v>
       </c>
@@ -7069,10 +7087,10 @@
         <v>55</v>
       </c>
       <c r="E319" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2</v>
       </c>
@@ -7086,10 +7104,10 @@
         <v>55</v>
       </c>
       <c r="E320" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>2</v>
       </c>
@@ -7103,10 +7121,10 @@
         <v>55</v>
       </c>
       <c r="E321" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>2</v>
       </c>
@@ -7120,10 +7138,10 @@
         <v>55</v>
       </c>
       <c r="E322" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>2</v>
       </c>
@@ -7137,10 +7155,10 @@
         <v>55</v>
       </c>
       <c r="E323" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>2</v>
       </c>
@@ -7154,10 +7172,10 @@
         <v>55</v>
       </c>
       <c r="E324" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>2</v>
       </c>
@@ -7171,10 +7189,10 @@
         <v>55</v>
       </c>
       <c r="E325" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2</v>
       </c>
@@ -7188,10 +7206,10 @@
         <v>55</v>
       </c>
       <c r="E326" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>2</v>
       </c>
@@ -7205,10 +7223,10 @@
         <v>55</v>
       </c>
       <c r="E327" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2</v>
       </c>
@@ -7222,10 +7240,10 @@
         <v>55</v>
       </c>
       <c r="E328" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>2</v>
       </c>
@@ -7239,10 +7257,10 @@
         <v>55</v>
       </c>
       <c r="E329" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>2</v>
       </c>
@@ -7256,10 +7274,10 @@
         <v>55</v>
       </c>
       <c r="E330" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2</v>
       </c>
@@ -7273,10 +7291,10 @@
         <v>55</v>
       </c>
       <c r="E331" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>2</v>
       </c>
@@ -7290,10 +7308,10 @@
         <v>55</v>
       </c>
       <c r="E332" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2</v>
       </c>
@@ -7307,10 +7325,10 @@
         <v>55</v>
       </c>
       <c r="E333" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>2</v>
       </c>
@@ -7324,10 +7342,10 @@
         <v>55</v>
       </c>
       <c r="E334" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>2</v>
       </c>
@@ -7341,10 +7359,10 @@
         <v>55</v>
       </c>
       <c r="E335" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>2</v>
       </c>
@@ -7358,10 +7376,10 @@
         <v>55</v>
       </c>
       <c r="E336" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>2</v>
       </c>
@@ -7375,10 +7393,10 @@
         <v>55</v>
       </c>
       <c r="E337" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>2</v>
       </c>
@@ -7392,10 +7410,10 @@
         <v>56</v>
       </c>
       <c r="E338" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>2</v>
       </c>
@@ -7409,10 +7427,10 @@
         <v>57</v>
       </c>
       <c r="E339" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>2</v>
       </c>
@@ -7426,10 +7444,10 @@
         <v>57</v>
       </c>
       <c r="E340" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>2</v>
       </c>
@@ -7443,10 +7461,10 @@
         <v>57</v>
       </c>
       <c r="E341" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2</v>
       </c>
@@ -7460,10 +7478,10 @@
         <v>57</v>
       </c>
       <c r="E342" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>2</v>
       </c>
@@ -7477,10 +7495,10 @@
         <v>57</v>
       </c>
       <c r="E343" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>2</v>
       </c>
@@ -7494,10 +7512,10 @@
         <v>57</v>
       </c>
       <c r="E344" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
@@ -7511,10 +7529,10 @@
         <v>57</v>
       </c>
       <c r="E345" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>2</v>
       </c>
@@ -7528,10 +7546,10 @@
         <v>57</v>
       </c>
       <c r="E346" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>2</v>
       </c>
@@ -7545,10 +7563,10 @@
         <v>57</v>
       </c>
       <c r="E347" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2</v>
       </c>
@@ -7562,10 +7580,10 @@
         <v>57</v>
       </c>
       <c r="E348" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>2</v>
       </c>
@@ -7579,10 +7597,10 @@
         <v>58</v>
       </c>
       <c r="E349" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>2</v>
       </c>
@@ -7596,10 +7614,10 @@
         <v>59</v>
       </c>
       <c r="E350" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>2</v>
       </c>
@@ -7613,10 +7631,10 @@
         <v>59</v>
       </c>
       <c r="E351" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>2</v>
       </c>
@@ -7630,10 +7648,10 @@
         <v>59</v>
       </c>
       <c r="E352" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>2</v>
       </c>
@@ -7647,10 +7665,10 @@
         <v>59</v>
       </c>
       <c r="E353" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>2</v>
       </c>
@@ -7664,10 +7682,10 @@
         <v>59</v>
       </c>
       <c r="E354" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2</v>
       </c>
@@ -7684,7 +7702,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>2</v>
       </c>
@@ -7698,10 +7716,10 @@
         <v>59</v>
       </c>
       <c r="E356" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>2</v>
       </c>
@@ -7715,10 +7733,10 @@
         <v>60</v>
       </c>
       <c r="E357" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2</v>
       </c>
@@ -7732,10 +7750,10 @@
         <v>61</v>
       </c>
       <c r="E358" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>2</v>
       </c>
@@ -7749,10 +7767,10 @@
         <v>61</v>
       </c>
       <c r="E359" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>2</v>
       </c>
@@ -7766,10 +7784,10 @@
         <v>61</v>
       </c>
       <c r="E360" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>2</v>
       </c>
@@ -7783,10 +7801,10 @@
         <v>61</v>
       </c>
       <c r="E361" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>2</v>
       </c>
@@ -7800,10 +7818,10 @@
         <v>61</v>
       </c>
       <c r="E362" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>2</v>
       </c>
@@ -7817,10 +7835,10 @@
         <v>61</v>
       </c>
       <c r="E363" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>2</v>
       </c>
@@ -7834,10 +7852,10 @@
         <v>61</v>
       </c>
       <c r="E364" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>2</v>
       </c>
@@ -7851,10 +7869,10 @@
         <v>61</v>
       </c>
       <c r="E365" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>2</v>
       </c>
@@ -7868,10 +7886,10 @@
         <v>61</v>
       </c>
       <c r="E366" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>2</v>
       </c>
@@ -7885,10 +7903,10 @@
         <v>61</v>
       </c>
       <c r="E367" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>2</v>
       </c>
@@ -7902,10 +7920,10 @@
         <v>61</v>
       </c>
       <c r="E368" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>2</v>
       </c>
@@ -7919,10 +7937,10 @@
         <v>61</v>
       </c>
       <c r="E369" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>2</v>
       </c>
@@ -7936,10 +7954,10 @@
         <v>64</v>
       </c>
       <c r="E370" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>2</v>
       </c>
@@ -7953,10 +7971,10 @@
         <v>64</v>
       </c>
       <c r="E371" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>2</v>
       </c>
@@ -7970,10 +7988,10 @@
         <v>64</v>
       </c>
       <c r="E372" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>2</v>
       </c>
@@ -7987,10 +8005,10 @@
         <v>64</v>
       </c>
       <c r="E373" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>2</v>
       </c>
@@ -8004,10 +8022,10 @@
         <v>64</v>
       </c>
       <c r="E374" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2</v>
       </c>
@@ -8021,10 +8039,10 @@
         <v>64</v>
       </c>
       <c r="E375" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>2</v>
       </c>
@@ -8038,10 +8056,10 @@
         <v>64</v>
       </c>
       <c r="E376" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2</v>
       </c>
@@ -8055,10 +8073,10 @@
         <v>64</v>
       </c>
       <c r="E377" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2</v>
       </c>
@@ -8072,10 +8090,10 @@
         <v>64</v>
       </c>
       <c r="E378" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2</v>
       </c>
@@ -8089,10 +8107,10 @@
         <v>64</v>
       </c>
       <c r="E379" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2</v>
       </c>
@@ -8106,10 +8124,10 @@
         <v>64</v>
       </c>
       <c r="E380" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2</v>
       </c>
@@ -8123,10 +8141,10 @@
         <v>64</v>
       </c>
       <c r="E381" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2</v>
       </c>
@@ -8140,10 +8158,10 @@
         <v>64</v>
       </c>
       <c r="E382" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2</v>
       </c>
@@ -8157,10 +8175,10 @@
         <v>64</v>
       </c>
       <c r="E383" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2</v>
       </c>
@@ -8174,10 +8192,10 @@
         <v>64</v>
       </c>
       <c r="E384" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2</v>
       </c>
@@ -8191,10 +8209,10 @@
         <v>64</v>
       </c>
       <c r="E385" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2</v>
       </c>
@@ -8208,10 +8226,10 @@
         <v>64</v>
       </c>
       <c r="E386" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2</v>
       </c>
@@ -8225,10 +8243,10 @@
         <v>64</v>
       </c>
       <c r="E387" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2</v>
       </c>
@@ -8242,10 +8260,10 @@
         <v>64</v>
       </c>
       <c r="E388" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2</v>
       </c>
@@ -8259,10 +8277,10 @@
         <v>64</v>
       </c>
       <c r="E389" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2</v>
       </c>
@@ -8276,10 +8294,10 @@
         <v>64</v>
       </c>
       <c r="E390" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2</v>
       </c>
@@ -8293,10 +8311,10 @@
         <v>64</v>
       </c>
       <c r="E391" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>2</v>
       </c>
@@ -8310,10 +8328,10 @@
         <v>67</v>
       </c>
       <c r="E392" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2</v>
       </c>
@@ -8327,10 +8345,10 @@
         <v>67</v>
       </c>
       <c r="E393" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2</v>
       </c>
@@ -8344,10 +8362,10 @@
         <v>67</v>
       </c>
       <c r="E394" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2</v>
       </c>
@@ -8361,10 +8379,10 @@
         <v>67</v>
       </c>
       <c r="E395" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2</v>
       </c>
@@ -8378,10 +8396,10 @@
         <v>67</v>
       </c>
       <c r="E396" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>2</v>
       </c>
@@ -8395,10 +8413,10 @@
         <v>67</v>
       </c>
       <c r="E397" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>2</v>
       </c>
@@ -8412,10 +8430,10 @@
         <v>67</v>
       </c>
       <c r="E398" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2</v>
       </c>
@@ -8429,10 +8447,10 @@
         <v>67</v>
       </c>
       <c r="E399" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>2</v>
       </c>
@@ -8446,10 +8464,10 @@
         <v>67</v>
       </c>
       <c r="E400" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>2</v>
       </c>
@@ -8463,10 +8481,10 @@
         <v>67</v>
       </c>
       <c r="E401" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>2</v>
       </c>
@@ -8480,10 +8498,10 @@
         <v>68</v>
       </c>
       <c r="E402" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2</v>
       </c>
@@ -8497,10 +8515,10 @@
         <v>68</v>
       </c>
       <c r="E403" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2</v>
       </c>
@@ -8514,10 +8532,10 @@
         <v>68</v>
       </c>
       <c r="E404" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>2</v>
       </c>
@@ -8531,10 +8549,10 @@
         <v>68</v>
       </c>
       <c r="E405" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>2</v>
       </c>
@@ -8548,10 +8566,10 @@
         <v>68</v>
       </c>
       <c r="E406" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>2</v>
       </c>
@@ -8565,10 +8583,10 @@
         <v>70</v>
       </c>
       <c r="E407" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>2</v>
       </c>
@@ -8582,10 +8600,10 @@
         <v>70</v>
       </c>
       <c r="E408" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>2</v>
       </c>
@@ -8599,10 +8617,10 @@
         <v>70</v>
       </c>
       <c r="E409" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>2</v>
       </c>
@@ -8616,10 +8634,10 @@
         <v>70</v>
       </c>
       <c r="E410" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>2</v>
       </c>
@@ -8633,10 +8651,10 @@
         <v>70</v>
       </c>
       <c r="E411" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>2</v>
       </c>
@@ -8650,10 +8668,10 @@
         <v>70</v>
       </c>
       <c r="E412" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>2</v>
       </c>
@@ -8667,10 +8685,10 @@
         <v>70</v>
       </c>
       <c r="E413" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>2</v>
       </c>
@@ -8684,10 +8702,10 @@
         <v>70</v>
       </c>
       <c r="E414" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>2</v>
       </c>
@@ -8701,10 +8719,10 @@
         <v>70</v>
       </c>
       <c r="E415" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2</v>
       </c>
@@ -8718,10 +8736,10 @@
         <v>70</v>
       </c>
       <c r="E416" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2</v>
       </c>
@@ -8735,10 +8753,10 @@
         <v>70</v>
       </c>
       <c r="E417" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2</v>
       </c>
@@ -8752,10 +8770,10 @@
         <v>70</v>
       </c>
       <c r="E418" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>2</v>
       </c>
@@ -8769,10 +8787,10 @@
         <v>70</v>
       </c>
       <c r="E419" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2</v>
       </c>
@@ -8786,10 +8804,10 @@
         <v>70</v>
       </c>
       <c r="E420" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2</v>
       </c>
@@ -8803,10 +8821,10 @@
         <v>70</v>
       </c>
       <c r="E421" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>2</v>
       </c>
@@ -8820,10 +8838,10 @@
         <v>70</v>
       </c>
       <c r="E422" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2</v>
       </c>
@@ -8837,10 +8855,10 @@
         <v>70</v>
       </c>
       <c r="E423" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>2</v>
       </c>
@@ -8854,10 +8872,10 @@
         <v>70</v>
       </c>
       <c r="E424" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>2</v>
       </c>
@@ -8871,10 +8889,10 @@
         <v>70</v>
       </c>
       <c r="E425" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>2</v>
       </c>
@@ -8888,10 +8906,10 @@
         <v>70</v>
       </c>
       <c r="E426" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2</v>
       </c>
@@ -8905,10 +8923,10 @@
         <v>70</v>
       </c>
       <c r="E427" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2</v>
       </c>
@@ -8922,10 +8940,10 @@
         <v>70</v>
       </c>
       <c r="E428" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>2</v>
       </c>
@@ -8939,10 +8957,10 @@
         <v>70</v>
       </c>
       <c r="E429" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2</v>
       </c>
@@ -8956,10 +8974,10 @@
         <v>70</v>
       </c>
       <c r="E430" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>2</v>
       </c>
@@ -8973,10 +8991,10 @@
         <v>70</v>
       </c>
       <c r="E431" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2</v>
       </c>
@@ -8990,10 +9008,10 @@
         <v>70</v>
       </c>
       <c r="E432" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>2</v>
       </c>
@@ -9007,10 +9025,10 @@
         <v>70</v>
       </c>
       <c r="E433" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2</v>
       </c>
@@ -9024,10 +9042,10 @@
         <v>70</v>
       </c>
       <c r="E434" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2</v>
       </c>
@@ -9041,10 +9059,10 @@
         <v>70</v>
       </c>
       <c r="E435" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2</v>
       </c>
@@ -9058,10 +9076,10 @@
         <v>71</v>
       </c>
       <c r="E436" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>2</v>
       </c>
@@ -9075,10 +9093,10 @@
         <v>71</v>
       </c>
       <c r="E437" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>2</v>
       </c>
@@ -9092,10 +9110,10 @@
         <v>71</v>
       </c>
       <c r="E438" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2</v>
       </c>
@@ -9109,10 +9127,10 @@
         <v>71</v>
       </c>
       <c r="E439" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>2</v>
       </c>
@@ -9126,10 +9144,10 @@
         <v>71</v>
       </c>
       <c r="E440" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>2</v>
       </c>
@@ -9143,10 +9161,10 @@
         <v>71</v>
       </c>
       <c r="E441" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>2</v>
       </c>
@@ -9160,10 +9178,10 @@
         <v>71</v>
       </c>
       <c r="E442" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2</v>
       </c>
@@ -9177,10 +9195,10 @@
         <v>71</v>
       </c>
       <c r="E443" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>2</v>
       </c>
@@ -9194,10 +9212,10 @@
         <v>71</v>
       </c>
       <c r="E444" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>2</v>
       </c>
@@ -9211,10 +9229,10 @@
         <v>71</v>
       </c>
       <c r="E445" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>2</v>
       </c>
@@ -9228,10 +9246,10 @@
         <v>71</v>
       </c>
       <c r="E446" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>2</v>
       </c>
@@ -9245,10 +9263,10 @@
         <v>71</v>
       </c>
       <c r="E447" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>2</v>
       </c>
@@ -9262,10 +9280,10 @@
         <v>71</v>
       </c>
       <c r="E448" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>2</v>
       </c>
@@ -9279,10 +9297,10 @@
         <v>71</v>
       </c>
       <c r="E449" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>2</v>
       </c>
@@ -9296,10 +9314,10 @@
         <v>71</v>
       </c>
       <c r="E450" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>2</v>
       </c>
@@ -9313,10 +9331,10 @@
         <v>71</v>
       </c>
       <c r="E451" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>2</v>
       </c>
@@ -9330,10 +9348,10 @@
         <v>71</v>
       </c>
       <c r="E452" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2</v>
       </c>
@@ -9347,10 +9365,10 @@
         <v>71</v>
       </c>
       <c r="E453" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2</v>
       </c>
@@ -9364,10 +9382,10 @@
         <v>71</v>
       </c>
       <c r="E454" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2</v>
       </c>
@@ -9381,10 +9399,10 @@
         <v>71</v>
       </c>
       <c r="E455" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2</v>
       </c>
@@ -9398,10 +9416,10 @@
         <v>71</v>
       </c>
       <c r="E456" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2</v>
       </c>
@@ -9415,10 +9433,10 @@
         <v>72</v>
       </c>
       <c r="E457" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2</v>
       </c>
@@ -9432,10 +9450,10 @@
         <v>73</v>
       </c>
       <c r="E458" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>2</v>
       </c>
@@ -9449,10 +9467,10 @@
         <v>73</v>
       </c>
       <c r="E459" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>2</v>
       </c>
@@ -9466,10 +9484,10 @@
         <v>73</v>
       </c>
       <c r="E460" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2</v>
       </c>
@@ -9483,10 +9501,10 @@
         <v>73</v>
       </c>
       <c r="E461" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>2</v>
       </c>
@@ -9500,10 +9518,10 @@
         <v>73</v>
       </c>
       <c r="E462" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>2</v>
       </c>
@@ -9517,10 +9535,10 @@
         <v>73</v>
       </c>
       <c r="E463" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2</v>
       </c>
@@ -9534,10 +9552,10 @@
         <v>73</v>
       </c>
       <c r="E464" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>2</v>
       </c>
@@ -9551,10 +9569,10 @@
         <v>75</v>
       </c>
       <c r="E465" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>2</v>
       </c>
@@ -9568,10 +9586,10 @@
         <v>75</v>
       </c>
       <c r="E466" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2</v>
       </c>
@@ -9585,10 +9603,10 @@
         <v>75</v>
       </c>
       <c r="E467" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2</v>
       </c>
@@ -9602,10 +9620,10 @@
         <v>75</v>
       </c>
       <c r="E468" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2</v>
       </c>
@@ -9619,10 +9637,10 @@
         <v>75</v>
       </c>
       <c r="E469" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>2</v>
       </c>
@@ -9636,10 +9654,10 @@
         <v>75</v>
       </c>
       <c r="E470" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2</v>
       </c>
@@ -9653,10 +9671,10 @@
         <v>76</v>
       </c>
       <c r="E471" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>2</v>
       </c>
@@ -9670,10 +9688,10 @@
         <v>77</v>
       </c>
       <c r="E472" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2</v>
       </c>
@@ -9687,10 +9705,10 @@
         <v>77</v>
       </c>
       <c r="E473" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2</v>
       </c>
@@ -9704,7 +9722,7 @@
         <v>77</v>
       </c>
       <c r="E474" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
